--- a/Data/HS/HS.C2 - Benchmark 2019 Edited.xlsx
+++ b/Data/HS/HS.C2 - Benchmark 2019 Edited.xlsx
@@ -16,12 +16,12 @@
     <sheet name="HS.C2.letters" sheetId="2" r:id="rId2"/>
     <sheet name="HS.C2.numbers" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9414" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9414" uniqueCount="67">
   <si>
     <t>Student Name</t>
   </si>
@@ -221,10 +221,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -16758,8 +16755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="A116" sqref="A1:AQ116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31322,7 +31319,7 @@
         <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G112" t="s">
         <v>47</v>
@@ -31430,10 +31427,10 @@
         <v>45</v>
       </c>
       <c r="AP112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AQ112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:43" x14ac:dyDescent="0.25">
@@ -31969,8 +31966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P75" workbookViewId="0">
-      <selection activeCell="AD100" sqref="AD100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="S111" sqref="S111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/HS/HS.C2 - Benchmark 2019 Edited.xlsx
+++ b/Data/HS/HS.C2 - Benchmark 2019 Edited.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="HS.C2.original" sheetId="1" r:id="rId1"/>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AR120"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31966,7 +31966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="S111" sqref="S111"/>
     </sheetView>
   </sheetViews>
